--- a/pred_ohlcv/54_21/2020-01-15 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BCD ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-3117.096244299998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4809.713244299998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4809.713244299998</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4785.684344299998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4799.688844299998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5036.088844299998</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5657.692044299998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5652.692044299998</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5652.692044299998</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5648.385044299998</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1562.531144299998</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1642.252444299998</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1633.677444299998</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1636.570944299998</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2770.279944299998</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2770.279944299998</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2766.967444299998</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2766.967444299998</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2874.967444299998</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2874.967444299998</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2858.334144299998</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2983.527644299998</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2983.527644299998</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2979.210544299998</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3139.190444299998</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1149.190444299998</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1152.190444299998</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1152.190444299998</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5453.851055700003</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4239.975355700002</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>12774.7648557</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12774.7648557</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>12774.7648557</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>37878.2149557</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>60515.47650779001</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>60694.63910779001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>60412.77590779001</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>55182.71660779002</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>55182.71660779002</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>40265.53560779002</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>37985.53560779002</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>37985.53560779002</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>37982.53560779002</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>37982.53560779002</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>38271.18280779002</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>38300.59160779002</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>38304.79800779002</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>35023.26690779002</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24395.98190779002</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24395.98190779002</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>24400.18830779002</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>24515.06820779002</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>24397.51270779002</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>22467.01770779002</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>22467.01770779002</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>23171.01770779002</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>23200.42650779002</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>21551.75080779002</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>18301.31790779002</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>18992.38230779002</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>18943.18650779002</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>25702.68000779002</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>25702.68000779002</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>25604.67000779002</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>25707.75810779002</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>25326.48330779003</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>25546.61290779003</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>25679.94010779003</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12874.97050779003</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>13074.97050779003</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>12994.97050779003</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>13754.97050779003</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>13377.26490779003</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>17620.03100779002</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>22902.75250779002</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>133165.79178579</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>130580.29808579</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>138248.38684345</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>135877.40614345</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>137990.99069279</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>126845.94149279</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>127031.15459279</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>135510.11369279</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>137119.71699279</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>136988.35249279</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>138116.19429279</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>134809.18829279</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>129687.50849279</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>129687.50849279</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>120394.74759279</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>239217.1596299</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>242585.3347299</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>265866.3699299</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>231814.1180299</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>220309.4189299</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>211736.05013516</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>211736.05013516</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>217127.63314042</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>211242.89344042</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>211242.89344042</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>203907.39554042</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>197514.29054042</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>197514.29054042</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>195509.47054042</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>195511.47054042</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>194700.97844042</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>187050.6129226</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>181896.34417042</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>179549.2093226</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>145063.6238704199</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>144625.6238704199</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>151942.57137042</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>144805.04027042</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>113125.9122464</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>113125.9122464</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>125310.22269285</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>299047.5919377799</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>292928.9226377798</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>294177.2434377798</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>296180.0041377798</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>296050.8061377798</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>294927.4278377799</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>308191.3602377799</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>308191.3602377799</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>308191.3602377799</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>306424.8273377799</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>307726.8192377799</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>307531.8144377799</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>307031.8144377799</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>307031.8144377799</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>307947.8924377799</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>307947.8924377799</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>298387.3711377798</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>297554.8711377798</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>291454.5056377799</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>279579.9403377799</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>398429.4317319299</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>403748.1421319299</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>403748.1421319299</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>405503.9106319299</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>398685.3752319299</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>398516.7964319299</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>398512.7964319299</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>402387.0303319299</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>398847.4520319299</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>407876.8259319299</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>407876.8259319299</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>407876.8259319299</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>406192.5905319299</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>405490.5905319299</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>407001.6611319299</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>395795.9308485999</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>405900.0731485999</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>413013.9461485999</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>423336.5607485999</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>454541.4541485999</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>454541.4541485999</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>470217.1592486</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>512653.1154486</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>527761.8874342198</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>527602.2865342199</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>853540.4638808498</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>796654.3348864198</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>842097.9541864198</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>796557.9460864199</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>830823.3518864198</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>845552.7852864198</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>837789.9610864198</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>798285.9195864197</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>798285.9195864197</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>917325.9681651895</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>787424.0482651895</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>841673.9517651895</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>794047.3485024496</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>758316.9087651896</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>723737.2108651896</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>682619.1926651895</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>696136.7888651895</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>738023.3424082096</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>701912.8091082096</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>698652.7540082096</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>690440.1523082096</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>784616.2960745797</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>767966.9530745797</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>784282.2870745797</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>784282.2870745797</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>793888.6089856997</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>810562.5484704797</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>829866.2491407197</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>827819.8170407197</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>825865.8707407197</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BCD ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-3117.096244299998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4809.713244299998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4809.713244299998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4785.684344299998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4799.688844299998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5036.088844299998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5657.692044299998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5652.692044299998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5652.692044299998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5648.385044299998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1562.531144299998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1642.252444299998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1633.677444299998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1636.570944299998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2770.279944299998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2770.279944299998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2766.967444299998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2766.967444299998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2874.967444299998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2874.967444299998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2858.334144299998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2983.527644299998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2983.527644299998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2979.210544299998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3139.190444299998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1149.190444299998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1152.190444299998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1152.190444299998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5453.851055700003</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4239.975355700002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>12774.7648557</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>37985.53560779002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>37985.53560779002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>37982.53560779002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>37982.53560779002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>38271.18280779002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>38300.59160779002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>38304.79800779002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>35023.26690779002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24395.98190779002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24395.98190779002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>24400.18830779002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>24515.06820779002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>24397.51270779002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>22467.01770779002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>22467.01770779002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>23171.01770779002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>23200.42650779002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>21551.75080779002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>18301.31790779002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>18992.38230779002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>18943.18650779002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>25702.68000779002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>25702.68000779002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>25604.67000779002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>25707.75810779002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>25326.48330779003</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>25546.61290779003</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>25679.94010779003</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12874.97050779003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>13074.97050779003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>12994.97050779003</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>13754.97050779003</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>13377.26490779003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>17620.03100779002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>133165.79178579</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>130580.29808579</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>138248.38684345</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>135877.40614345</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>137990.99069279</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>126845.94149279</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>127031.15459279</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>135510.11369279</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>137119.71699279</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>136988.35249279</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>138116.19429279</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>134809.18829279</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>129687.50849279</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>129687.50849279</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>120394.74759279</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>239217.1596299</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>242585.3347299</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>265866.3699299</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>231814.1180299</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>220309.4189299</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>211736.05013516</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>211736.05013516</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>217127.63314042</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>211242.89344042</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>211242.89344042</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>203907.39554042</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>197514.29054042</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>197514.29054042</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>195509.47054042</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>195511.47054042</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>194700.97844042</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>187050.6129226</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>181896.34417042</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>179549.2093226</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>145063.6238704199</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>144625.6238704199</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>151942.57137042</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>144805.04027042</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>113125.9122464</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>113125.9122464</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>125310.22269285</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>299047.5919377799</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>292928.9226377798</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>294177.2434377798</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>296180.0041377798</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>296050.8061377798</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>294927.4278377799</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>308191.3602377799</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>308191.3602377799</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>308191.3602377799</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>306424.8273377799</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>307726.8192377799</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>307531.8144377799</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>307031.8144377799</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>307031.8144377799</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>307947.8924377799</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>307947.8924377799</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>298387.3711377798</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>297554.8711377798</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>291454.5056377799</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>279579.9403377799</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>398429.4317319299</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>403748.1421319299</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>403748.1421319299</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>405503.9106319299</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>398685.3752319299</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>398516.7964319299</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>398512.7964319299</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>402387.0303319299</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>398847.4520319299</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>407876.8259319299</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>407876.8259319299</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>407876.8259319299</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>406192.5905319299</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>405490.5905319299</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>407001.6611319299</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>395795.9308485999</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>405900.0731485999</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>413013.9461485999</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>423336.5607485999</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>454541.4541485999</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>454541.4541485999</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>470217.1592486</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>512653.1154486</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>527761.8874342198</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>527602.2865342199</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>853540.4638808498</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>796654.3348864198</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>842097.9541864198</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>845552.7852864198</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>800195.5052864198</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>837789.9610864198</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>798285.9195864197</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>798285.9195864197</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>734177.4297864196</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>766814.4450864196</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>852303.5410651895</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>917325.9681651895</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>787424.0482651895</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>841673.9517651895</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>794047.3485024496</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>758316.9087651896</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>723737.2108651896</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>682619.1926651895</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>738023.3424082096</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>701912.8091082096</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>698652.7540082096</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>700161.7540082096</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>699338.5584082096</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>690440.1523082096</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>690749.9129082096</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>704022.4254082096</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>701395.5540082096</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>706086.6866082096</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>742104.2144082097</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>742104.2144082097</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>745011.0391082097</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>744677.0036082097</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>775157.1529104797</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>784616.2960745797</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>767966.9530745797</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>784282.2870745797</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>784282.2870745797</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>793888.6089856997</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>810562.5484704797</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>829866.2491407197</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>827819.8170407197</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>825865.8707407197</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
